--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.9429665751221</v>
+        <v>438.2912002889349</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.1182405349999</v>
+        <v>599.689356278409</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.7652014383477</v>
+        <v>542.4558457844946</v>
       </c>
       <c r="AD2" t="n">
-        <v>377942.9665751221</v>
+        <v>438291.2002889349</v>
       </c>
       <c r="AE2" t="n">
-        <v>517118.2405349999</v>
+        <v>599689.356278409</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417153243959769e-06</v>
+        <v>3.484723815530116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.57486979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>467765.2014383478</v>
+        <v>542455.8457844947</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.5904161313777</v>
+        <v>239.0386359672907</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.929633242966</v>
+        <v>327.0632073706392</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.2135419300474</v>
+        <v>295.8487538953772</v>
       </c>
       <c r="AD3" t="n">
-        <v>204590.4161313777</v>
+        <v>239038.6359672907</v>
       </c>
       <c r="AE3" t="n">
-        <v>279929.633242966</v>
+        <v>327063.2073706392</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.704577481317768e-06</v>
+        <v>5.340757524531806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>253213.5419300474</v>
+        <v>295848.7538953772</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.2471188159576</v>
+        <v>206.6099977972989</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.6761069704574</v>
+        <v>282.6929139759329</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.1835100947586</v>
+        <v>255.7130990281496</v>
       </c>
       <c r="AD4" t="n">
-        <v>172247.1188159576</v>
+        <v>206609.9977972989</v>
       </c>
       <c r="AE4" t="n">
-        <v>235676.1069704574</v>
+        <v>282692.9139759329</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.18335850163627e-06</v>
+        <v>6.030999083728316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>213183.5100947586</v>
+        <v>255713.0990281496</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.4817362725707</v>
+        <v>187.9298665999326</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.0004827043587</v>
+        <v>257.1339343624834</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.9583313726432</v>
+        <v>232.5934325567464</v>
       </c>
       <c r="AD5" t="n">
-        <v>153481.7362725707</v>
+        <v>187929.8665999326</v>
       </c>
       <c r="AE5" t="n">
-        <v>210000.4827043587</v>
+        <v>257133.9343624834</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432459079290281e-06</v>
+        <v>6.390118522093427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.85546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>189958.3313726432</v>
+        <v>232593.4325567464</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.7419819013175</v>
+        <v>183.1901122286794</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.5153416704082</v>
+        <v>250.6487933285329</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.0921230970183</v>
+        <v>226.7272242811216</v>
       </c>
       <c r="AD6" t="n">
-        <v>148741.9819013175</v>
+        <v>183190.1122286794</v>
       </c>
       <c r="AE6" t="n">
-        <v>203515.3416704082</v>
+        <v>250648.7933285329</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.561490937730251e-06</v>
+        <v>6.576139160706839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.663411458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>184092.1230970183</v>
+        <v>226727.2242811215</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.4398658589352</v>
+        <v>170.4253100999569</v>
       </c>
       <c r="AB7" t="n">
-        <v>197.628996705259</v>
+        <v>233.1834279126984</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.767562633804</v>
+        <v>210.9287288277743</v>
       </c>
       <c r="AD7" t="n">
-        <v>144439.8658589352</v>
+        <v>170425.3100999569</v>
       </c>
       <c r="AE7" t="n">
-        <v>197628.996705259</v>
+        <v>233183.4279126984</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.675210766659255e-06</v>
+        <v>6.740084991264824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>178767.562633804</v>
+        <v>210928.7288277743</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.5068806642408</v>
+        <v>167.3217327046704</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.6159569677056</v>
+        <v>228.9369764002981</v>
       </c>
       <c r="AC8" t="n">
-        <v>175.1375217764648</v>
+        <v>207.087552687784</v>
       </c>
       <c r="AD8" t="n">
-        <v>141506.8806642408</v>
+        <v>167321.7327046704</v>
       </c>
       <c r="AE8" t="n">
-        <v>193615.9569677056</v>
+        <v>228936.9764002981</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.749343397340396e-06</v>
+        <v>6.846959366850243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>175137.5217764648</v>
+        <v>207087.552687784</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.1332187204755</v>
+        <v>163.9480707609051</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.9999638607875</v>
+        <v>224.3209832933801</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.9620725730825</v>
+        <v>202.9121034844018</v>
       </c>
       <c r="AD9" t="n">
-        <v>138133.2187204755</v>
+        <v>163948.0707609051</v>
       </c>
       <c r="AE9" t="n">
-        <v>188999.9638607875</v>
+        <v>224320.9832933801</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.8386946914989e-06</v>
+        <v>6.975773948002945e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.282552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>170962.0725730825</v>
+        <v>202912.1034844018</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.8488052580467</v>
+        <v>162.6636572984762</v>
       </c>
       <c r="AB10" t="n">
-        <v>187.2425726971704</v>
+        <v>222.563592129763</v>
       </c>
       <c r="AC10" t="n">
-        <v>169.3724043556065</v>
+        <v>201.3224352669258</v>
       </c>
       <c r="AD10" t="n">
-        <v>136848.8052580467</v>
+        <v>162663.6572984762</v>
       </c>
       <c r="AE10" t="n">
-        <v>187242.5726971704</v>
+        <v>222563.592129763</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.863343324370211e-06</v>
+        <v>7.011309004872656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>169372.4043556065</v>
+        <v>201322.4352669258</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.0941666064817</v>
+        <v>160.9090186469112</v>
       </c>
       <c r="AB11" t="n">
-        <v>184.8417986849064</v>
+        <v>220.1628181174989</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.2007568455646</v>
+        <v>199.1507877568839</v>
       </c>
       <c r="AD11" t="n">
-        <v>135094.1666064817</v>
+        <v>160909.0186469112</v>
       </c>
       <c r="AE11" t="n">
-        <v>184841.7986849064</v>
+        <v>220162.8181174989</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.903210620718885e-06</v>
+        <v>7.068784267309651e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>167200.7568455646</v>
+        <v>199150.7877568839</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>133.6368554188491</v>
+        <v>159.4517074592787</v>
       </c>
       <c r="AB12" t="n">
-        <v>182.8478412259564</v>
+        <v>218.1688606585489</v>
       </c>
       <c r="AC12" t="n">
-        <v>165.3970998879593</v>
+        <v>197.3471307992786</v>
       </c>
       <c r="AD12" t="n">
-        <v>133636.8554188491</v>
+        <v>159451.7074592786</v>
       </c>
       <c r="AE12" t="n">
-        <v>182847.8412259564</v>
+        <v>218168.8606585489</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.923844514145248e-06</v>
+        <v>7.09853141718922e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>165397.0998879593</v>
+        <v>197347.1307992786</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>131.9296808447777</v>
+        <v>157.7445328852073</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.5120096584864</v>
+        <v>215.8330290910789</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.2841968069277</v>
+        <v>195.234227718247</v>
       </c>
       <c r="AD13" t="n">
-        <v>131929.6808447777</v>
+        <v>157744.5328852073</v>
       </c>
       <c r="AE13" t="n">
-        <v>180512.0096584864</v>
+        <v>215833.0290910789</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.953348180763939e-06</v>
+        <v>7.141065803442359e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.136067708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>163284.1968069277</v>
+        <v>195234.227718247</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.1689006073644</v>
+        <v>155.983752647794</v>
       </c>
       <c r="AB14" t="n">
-        <v>178.1028324575171</v>
+        <v>213.4238518901096</v>
       </c>
       <c r="AC14" t="n">
-        <v>161.1049480967167</v>
+        <v>193.054979008036</v>
       </c>
       <c r="AD14" t="n">
-        <v>130168.9006073644</v>
+        <v>155983.752647794</v>
       </c>
       <c r="AE14" t="n">
-        <v>178102.832457517</v>
+        <v>213423.8518901096</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.982758481349026e-06</v>
+        <v>7.183465587207356e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.100260416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>161104.9480967167</v>
+        <v>193054.979008036</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>128.4591120159271</v>
+        <v>154.2739640563566</v>
       </c>
       <c r="AB15" t="n">
-        <v>175.7634242761646</v>
+        <v>211.0844437087571</v>
       </c>
       <c r="AC15" t="n">
-        <v>158.9888097488118</v>
+        <v>190.9388406601311</v>
       </c>
       <c r="AD15" t="n">
-        <v>128459.1120159271</v>
+        <v>154273.9640563566</v>
       </c>
       <c r="AE15" t="n">
-        <v>175763.4242761646</v>
+        <v>211084.4437087571</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.006006623716286e-06</v>
+        <v>7.216981606754923e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.070963541666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>158988.8097488118</v>
+        <v>190938.8406601311</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>128.1531693764158</v>
+        <v>153.9680214168454</v>
       </c>
       <c r="AB16" t="n">
-        <v>175.3448200595489</v>
+        <v>210.6658394921414</v>
       </c>
       <c r="AC16" t="n">
-        <v>158.610156531115</v>
+        <v>190.5601874424343</v>
       </c>
       <c r="AD16" t="n">
-        <v>128153.1693764158</v>
+        <v>153968.0214168454</v>
       </c>
       <c r="AE16" t="n">
-        <v>175344.8200595489</v>
+        <v>210665.8394921414</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.997697046725579e-06</v>
+        <v>7.205001985310211e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>158610.156531115</v>
+        <v>190560.1874424343</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>127.2399804219016</v>
+        <v>153.0548324623312</v>
       </c>
       <c r="AB17" t="n">
-        <v>174.0953546449298</v>
+        <v>209.4163740775224</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.4799383420311</v>
+        <v>189.4299692533504</v>
       </c>
       <c r="AD17" t="n">
-        <v>127239.9804219017</v>
+        <v>153054.8324623312</v>
       </c>
       <c r="AE17" t="n">
-        <v>174095.3546449298</v>
+        <v>209416.3740775224</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.021598751328062e-06</v>
+        <v>7.239460222274778e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.051432291666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>157479.9383420311</v>
+        <v>189429.9692533504</v>
       </c>
     </row>
   </sheetData>
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.6539801660008</v>
+        <v>326.0731806414474</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.1619366584484</v>
+        <v>446.1477110870933</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.166130773868</v>
+        <v>403.5679997131856</v>
       </c>
       <c r="AD2" t="n">
-        <v>275653.9801660008</v>
+        <v>326073.1806414474</v>
       </c>
       <c r="AE2" t="n">
-        <v>377161.9366584484</v>
+        <v>446147.7110870933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.949442269247874e-06</v>
+        <v>4.317872527249187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66080729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>341166.130773868</v>
+        <v>403567.9997131856</v>
       </c>
     </row>
     <row r="3">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.0108882550577</v>
+        <v>201.6805824750693</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.8799094277347</v>
+        <v>275.9482704616061</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.9404935104972</v>
+        <v>249.6121548246614</v>
       </c>
       <c r="AD3" t="n">
-        <v>168010.8882550577</v>
+        <v>201680.5824750693</v>
       </c>
       <c r="AE3" t="n">
-        <v>229879.9094277347</v>
+        <v>275948.2704616061</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145078574419287e-06</v>
+        <v>6.068239099434328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207940.4935104972</v>
+        <v>249612.1548246614</v>
       </c>
     </row>
     <row r="4">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.0806289587651</v>
+        <v>176.6649823242052</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.7692288131474</v>
+        <v>241.7208227248212</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.0852883791143</v>
+        <v>218.6513266613397</v>
       </c>
       <c r="AD4" t="n">
-        <v>143080.6289587652</v>
+        <v>176664.9823242052</v>
       </c>
       <c r="AE4" t="n">
-        <v>195769.2288131474</v>
+        <v>241720.8227248212</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.579908095857343e-06</v>
+        <v>6.704813160988371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.865234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>177085.2883791143</v>
+        <v>218651.3266613397</v>
       </c>
     </row>
     <row r="5">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.5011799160072</v>
+        <v>159.8387914355876</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.0304481342732</v>
+        <v>218.6984860318744</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.466840452746</v>
+        <v>197.8262094703079</v>
       </c>
       <c r="AD5" t="n">
-        <v>134501.1799160072</v>
+        <v>159838.7914355876</v>
       </c>
       <c r="AE5" t="n">
-        <v>184030.4481342732</v>
+        <v>218698.4860318743</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.836923057329283e-06</v>
+        <v>7.08107339594957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>166466.840452746</v>
+        <v>197826.2094703079</v>
       </c>
     </row>
     <row r="6">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.9921077956707</v>
+        <v>157.1591271146589</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.5974249667808</v>
+        <v>215.0320510895351</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.3614601980797</v>
+        <v>194.5096939329906</v>
       </c>
       <c r="AD6" t="n">
-        <v>131992.1077956707</v>
+        <v>157159.1271146589</v>
       </c>
       <c r="AE6" t="n">
-        <v>180597.4249667808</v>
+        <v>215032.0510895351</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.911390751915853e-06</v>
+        <v>7.190091299427616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.402994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>163361.4601980797</v>
+        <v>194509.6939329906</v>
       </c>
     </row>
     <row r="7">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.0663469720575</v>
+        <v>153.2333662910457</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.2260258155717</v>
+        <v>209.660651938326</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.5026998430542</v>
+        <v>189.6509335779651</v>
       </c>
       <c r="AD7" t="n">
-        <v>128066.3469720575</v>
+        <v>153233.3662910457</v>
       </c>
       <c r="AE7" t="n">
-        <v>175226.0258155717</v>
+        <v>209660.651938326</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.025941576532809e-06</v>
+        <v>7.357789397384768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>158502.6998430542</v>
+        <v>189650.9335779651</v>
       </c>
     </row>
     <row r="8">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.3084697942989</v>
+        <v>150.4754891132871</v>
       </c>
       <c r="AB8" t="n">
-        <v>171.4525765920102</v>
+        <v>205.8872027147645</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.089383317319</v>
+        <v>186.2376170522299</v>
       </c>
       <c r="AD8" t="n">
-        <v>125308.4697942989</v>
+        <v>150475.4891132871</v>
       </c>
       <c r="AE8" t="n">
-        <v>171452.5765920102</v>
+        <v>205887.2027147645</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.100602442830369e-06</v>
+        <v>7.467090096980787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>155089.383317319</v>
+        <v>186237.6170522299</v>
       </c>
     </row>
     <row r="9">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.6027145378564</v>
+        <v>148.7697338568445</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.1186869975358</v>
+        <v>203.5533131202901</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.9782368701058</v>
+        <v>184.1264706050168</v>
       </c>
       <c r="AD9" t="n">
-        <v>123602.7145378564</v>
+        <v>148769.7338568445</v>
       </c>
       <c r="AE9" t="n">
-        <v>169118.6869975358</v>
+        <v>203553.3131202901</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.130833815600275e-06</v>
+        <v>7.51134768944334e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.126302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>152978.2368701058</v>
+        <v>184126.4706050168</v>
       </c>
     </row>
     <row r="10">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.327101215096</v>
+        <v>146.4941205340841</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.0050924563621</v>
+        <v>200.4397185791165</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.1617994219835</v>
+        <v>181.3100331568944</v>
       </c>
       <c r="AD10" t="n">
-        <v>121327.101215096</v>
+        <v>146494.1205340842</v>
       </c>
       <c r="AE10" t="n">
-        <v>166005.0924563622</v>
+        <v>200439.7185791165</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.177291612093323e-06</v>
+        <v>7.579360155815507e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>150161.7994219835</v>
+        <v>181310.0331568944</v>
       </c>
     </row>
     <row r="11">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.7723194034172</v>
+        <v>144.9393387224054</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.8777713894918</v>
+        <v>198.3123975122461</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.2375068920207</v>
+        <v>179.3857406269316</v>
       </c>
       <c r="AD11" t="n">
-        <v>119772.3194034172</v>
+        <v>144939.3387224054</v>
       </c>
       <c r="AE11" t="n">
-        <v>163877.7713894918</v>
+        <v>198312.3975122461</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.193518035816468e-06</v>
+        <v>7.603115029725121e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>148237.5068920207</v>
+        <v>179385.7406269316</v>
       </c>
     </row>
     <row r="12">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.4751752400797</v>
+        <v>143.6421945590679</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.1029615192526</v>
+        <v>196.5375876420069</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.6320823848352</v>
+        <v>177.7803161197461</v>
       </c>
       <c r="AD12" t="n">
-        <v>118475.1752400797</v>
+        <v>143642.1945590679</v>
       </c>
       <c r="AE12" t="n">
-        <v>162102.9615192526</v>
+        <v>196537.5876420069</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.204625409198381e-06</v>
+        <v>7.619375806508487e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>146632.0823848352</v>
+        <v>177780.3161197461</v>
       </c>
     </row>
     <row r="13">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.1303667843095</v>
+        <v>143.2973861032977</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.6311793781926</v>
+        <v>196.0658055009469</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.2053264691675</v>
+        <v>177.3535602040784</v>
       </c>
       <c r="AD13" t="n">
-        <v>118130.3667843095</v>
+        <v>143297.3861032977</v>
       </c>
       <c r="AE13" t="n">
-        <v>161631.1793781926</v>
+        <v>196065.8055009469</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.233697751702347e-06</v>
+        <v>7.661936622263211e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.005859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>146205.3264691675</v>
+        <v>177353.5602040784</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.8245989570536</v>
+        <v>162.8937538940126</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.3682319838167</v>
+        <v>222.8784204429211</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.1541410717352</v>
+        <v>201.6072168077405</v>
       </c>
       <c r="AD2" t="n">
-        <v>131824.5989570536</v>
+        <v>162893.7538940126</v>
       </c>
       <c r="AE2" t="n">
-        <v>180368.2319838167</v>
+        <v>222878.4204429211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.659576530426476e-06</v>
+        <v>7.208940037683929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.529296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>163154.1410717352</v>
+        <v>201607.2168077405</v>
       </c>
     </row>
     <row r="3">
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.2245639405679</v>
+        <v>127.4411787972666</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.6046464466708</v>
+        <v>174.3706431383499</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.9946591367174</v>
+        <v>157.7289536880091</v>
       </c>
       <c r="AD3" t="n">
-        <v>104224.563940568</v>
+        <v>127441.1787972666</v>
       </c>
       <c r="AE3" t="n">
-        <v>142604.6464466708</v>
+        <v>174370.6431383499</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.484492077539495e-06</v>
+        <v>8.48518621079844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.396484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>128994.6591367174</v>
+        <v>157728.9536880091</v>
       </c>
     </row>
     <row r="4">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.51881541079673</v>
+        <v>120.7354302674954</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.4295454714964</v>
+        <v>165.1955421631755</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.6952169212756</v>
+        <v>149.4295114725673</v>
       </c>
       <c r="AD4" t="n">
-        <v>97518.81541079673</v>
+        <v>120735.4302674954</v>
       </c>
       <c r="AE4" t="n">
-        <v>133429.5454714964</v>
+        <v>165195.5421631755</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762876825147665e-06</v>
+        <v>8.915881777189189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>120695.2169212756</v>
+        <v>149429.5114725673</v>
       </c>
     </row>
     <row r="5">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.9336081872171</v>
+        <v>120.1502230439158</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.6288391306745</v>
+        <v>164.3948358223536</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.9709288698231</v>
+        <v>148.7052234211149</v>
       </c>
       <c r="AD5" t="n">
-        <v>96933.60818721711</v>
+        <v>120150.2230439158</v>
       </c>
       <c r="AE5" t="n">
-        <v>132628.8391306745</v>
+        <v>164394.8358223536</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.790036312719193e-06</v>
+        <v>8.957900856837065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.057942708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>119970.9288698231</v>
+        <v>148705.2234211148</v>
       </c>
     </row>
   </sheetData>
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.5062619320389</v>
+        <v>204.5068726329963</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.0306780144671</v>
+        <v>279.8153253428015</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.5042413759718</v>
+        <v>253.1101434154424</v>
       </c>
       <c r="AD2" t="n">
-        <v>172506.2619320389</v>
+        <v>204506.8726329963</v>
       </c>
       <c r="AE2" t="n">
-        <v>236030.6780144671</v>
+        <v>279815.3253428015</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977299855506013e-06</v>
+        <v>6.010869282301251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>213504.2413759718</v>
+        <v>253110.1434154424</v>
       </c>
     </row>
     <row r="3">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.5885305088584</v>
+        <v>154.5890517012647</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.7310356664199</v>
+        <v>211.515560525206</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.7230210344504</v>
+        <v>191.3288122926944</v>
       </c>
       <c r="AD3" t="n">
-        <v>122588.5305088584</v>
+        <v>154589.0517012647</v>
       </c>
       <c r="AE3" t="n">
-        <v>167731.0356664199</v>
+        <v>211515.560525206</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.956184750598019e-06</v>
+        <v>7.490252120050262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>151723.0210344504</v>
+        <v>191328.8122926944</v>
       </c>
     </row>
     <row r="4">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.5838159040075</v>
+        <v>137.5629610932204</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.4103878840979</v>
+        <v>188.2197122171864</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.5782385843315</v>
+        <v>170.2562870512564</v>
       </c>
       <c r="AD4" t="n">
-        <v>113583.8159040075</v>
+        <v>137562.9610932204</v>
       </c>
       <c r="AE4" t="n">
-        <v>155410.3878840979</v>
+        <v>188219.7122171864</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.301073098405345e-06</v>
+        <v>8.011479799876514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.331380208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>140578.2385843315</v>
+        <v>170256.2870512564</v>
       </c>
     </row>
     <row r="5">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.0507697453406</v>
+        <v>133.0299149345535</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.2080741459307</v>
+        <v>182.0173984790191</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.9678649643309</v>
+        <v>164.6459134312558</v>
       </c>
       <c r="AD5" t="n">
-        <v>109050.7697453406</v>
+        <v>133029.9149345535</v>
       </c>
       <c r="AE5" t="n">
-        <v>149208.0741459306</v>
+        <v>182017.3984790191</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.455319127798398e-06</v>
+        <v>8.244590893753967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.15234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>134967.8649643309</v>
+        <v>164645.9134312558</v>
       </c>
     </row>
     <row r="6">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.64112749471366</v>
+        <v>128.5563078325483</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.2286541438541</v>
+        <v>175.8964118804425</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.6089369764815</v>
+        <v>159.1091052027867</v>
       </c>
       <c r="AD6" t="n">
-        <v>96641.12749471366</v>
+        <v>128556.3078325483</v>
       </c>
       <c r="AE6" t="n">
-        <v>132228.6541438541</v>
+        <v>175896.4118804425</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.598532854287e-06</v>
+        <v>8.461028934793925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.99609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>119608.9369764815</v>
+        <v>159109.1052027867</v>
       </c>
     </row>
     <row r="7">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.6413104812952</v>
+        <v>128.6204556705081</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.1748574492533</v>
+        <v>175.9841817823419</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.5104500015098</v>
+        <v>159.1884984684347</v>
       </c>
       <c r="AD7" t="n">
-        <v>104641.3104812952</v>
+        <v>128620.455670508</v>
       </c>
       <c r="AE7" t="n">
-        <v>143174.8574492533</v>
+        <v>175984.1817823419</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.578942783709005e-06</v>
+        <v>8.431422579288098e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>129510.4500015097</v>
+        <v>159188.4984684347</v>
       </c>
     </row>
   </sheetData>
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.878398427277</v>
+        <v>134.0283041212695</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.1310075196417</v>
+        <v>183.3834386101057</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5662236441274</v>
+        <v>165.8815806094813</v>
       </c>
       <c r="AD2" t="n">
-        <v>103878.398427277</v>
+        <v>134028.3041212696</v>
       </c>
       <c r="AE2" t="n">
-        <v>142131.0075196417</v>
+        <v>183383.4386101057</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239303116744682e-06</v>
+        <v>8.280655653779164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>128566.2236441274</v>
+        <v>165881.5806094813</v>
       </c>
     </row>
     <row r="3">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.49650629518246</v>
+        <v>115.087689860585</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.5578005708757</v>
+        <v>157.4680545777227</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.4793017094134</v>
+        <v>142.4395244566708</v>
       </c>
       <c r="AD3" t="n">
-        <v>92496.50629518245</v>
+        <v>115087.689860585</v>
       </c>
       <c r="AE3" t="n">
-        <v>126557.8005708757</v>
+        <v>157468.0545777227</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.797742735806771e-06</v>
+        <v>9.163262765038256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.285807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>114479.3017094134</v>
+        <v>142439.5244566708</v>
       </c>
     </row>
     <row r="4">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.46000464003842</v>
+        <v>114.051188205441</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.1396132790826</v>
+        <v>156.0498672859296</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.1964642223103</v>
+        <v>141.1566869695676</v>
       </c>
       <c r="AD4" t="n">
-        <v>91460.00464003842</v>
+        <v>114051.188205441</v>
       </c>
       <c r="AE4" t="n">
-        <v>125139.6132790826</v>
+        <v>156049.8672859296</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.884603658715607e-06</v>
+        <v>9.300545410525738e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>113196.4642223103</v>
+        <v>141156.6869695676</v>
       </c>
     </row>
   </sheetData>
@@ -9928,28 +9928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.0516957057363</v>
+        <v>344.4226984764891</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.2804556449319</v>
+        <v>471.2543309125909</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.8375490009414</v>
+        <v>426.2784789799</v>
       </c>
       <c r="AD2" t="n">
-        <v>302051.6957057363</v>
+        <v>344422.6984764891</v>
       </c>
       <c r="AE2" t="n">
-        <v>413280.4556449319</v>
+        <v>471254.330912591</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.812584519831674e-06</v>
+        <v>4.100428407858842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07747395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>373837.5490009413</v>
+        <v>426278.4789799</v>
       </c>
     </row>
     <row r="3">
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8585579054729</v>
+        <v>208.7552885152338</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.249193141292</v>
+        <v>285.6281953797567</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.4155859363079</v>
+        <v>258.3682412944867</v>
       </c>
       <c r="AD3" t="n">
-        <v>174858.5579054729</v>
+        <v>208755.2885152338</v>
       </c>
       <c r="AE3" t="n">
-        <v>239249.193141292</v>
+        <v>285628.1953797567</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024568769426985e-06</v>
+        <v>5.867363627716882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.740885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216415.5859363079</v>
+        <v>258368.2412944867</v>
       </c>
     </row>
     <row r="4">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.6649358155369</v>
+        <v>182.4763255707261</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.4099238168097</v>
+        <v>249.6721589330768</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.9967661754124</v>
+        <v>225.8437985016524</v>
       </c>
       <c r="AD4" t="n">
-        <v>148664.9358155369</v>
+        <v>182476.3255707261</v>
       </c>
       <c r="AE4" t="n">
-        <v>203409.9238168097</v>
+        <v>249672.1589330768</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.458459513655033e-06</v>
+        <v>6.499926994611251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.988932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>183996.7661754124</v>
+        <v>225843.7985016524</v>
       </c>
     </row>
     <row r="5">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.7258062125594</v>
+        <v>163.2336950244516</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.4425240936856</v>
+        <v>223.3435428947317</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.457834074981</v>
+        <v>202.0279486255539</v>
       </c>
       <c r="AD5" t="n">
-        <v>137725.8062125594</v>
+        <v>163233.6950244516</v>
       </c>
       <c r="AE5" t="n">
-        <v>188442.5240936856</v>
+        <v>223343.5428947317</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.772606750045163e-06</v>
+        <v>6.957917943242912e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.529947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>170457.834074981</v>
+        <v>202027.9486255539</v>
       </c>
     </row>
     <row r="6">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.0219337590199</v>
+        <v>161.35923037032</v>
       </c>
       <c r="AB6" t="n">
-        <v>186.1112106332067</v>
+        <v>220.7788176594059</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.3490178991504</v>
+        <v>199.7079971670724</v>
       </c>
       <c r="AD6" t="n">
-        <v>136021.9337590199</v>
+        <v>161359.23037032</v>
       </c>
       <c r="AE6" t="n">
-        <v>186111.2106332067</v>
+        <v>220778.8176594059</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.823528849301576e-06</v>
+        <v>7.032156573551274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>168349.0178991504</v>
+        <v>199707.9971670724</v>
       </c>
     </row>
     <row r="7">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.7793931771275</v>
+        <v>158.1166897884275</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.6746235582691</v>
+        <v>216.3422305844684</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.3358524678545</v>
+        <v>195.6948317357764</v>
       </c>
       <c r="AD7" t="n">
-        <v>132779.3931771275</v>
+        <v>158116.6897884275</v>
       </c>
       <c r="AE7" t="n">
-        <v>181674.6235582691</v>
+        <v>216342.2305844684</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.913503987085465e-06</v>
+        <v>7.163330093269057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>164335.8524678545</v>
+        <v>195694.8317357764</v>
       </c>
     </row>
     <row r="8">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.7217146075933</v>
+        <v>155.0590112188934</v>
       </c>
       <c r="AB8" t="n">
-        <v>177.4909728441766</v>
+        <v>212.1585798703759</v>
       </c>
       <c r="AC8" t="n">
-        <v>160.5514835061229</v>
+        <v>191.9104627740448</v>
       </c>
       <c r="AD8" t="n">
-        <v>129721.7146075933</v>
+        <v>155059.0112188934</v>
       </c>
       <c r="AE8" t="n">
-        <v>177490.9728441766</v>
+        <v>212158.5798703759</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.994481611090964e-06</v>
+        <v>7.281386261015061e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>160551.4835061229</v>
+        <v>191910.4627740448</v>
       </c>
     </row>
     <row r="9">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.6558432089138</v>
+        <v>152.9931398202138</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.6643564566909</v>
+        <v>209.3319634828902</v>
       </c>
       <c r="AC9" t="n">
-        <v>157.994635419477</v>
+        <v>189.3536146873989</v>
       </c>
       <c r="AD9" t="n">
-        <v>127655.8432089138</v>
+        <v>152993.1398202138</v>
       </c>
       <c r="AE9" t="n">
-        <v>174664.3564566909</v>
+        <v>209331.9634828902</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.040522080531443e-06</v>
+        <v>7.348508030147244e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.181640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>157994.635419477</v>
+        <v>189353.6146873989</v>
       </c>
     </row>
     <row r="10">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.7185400464278</v>
+        <v>151.0558366577278</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.0136528019953</v>
+        <v>206.6812598281946</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.5969112012988</v>
+        <v>186.9558904692206</v>
       </c>
       <c r="AD10" t="n">
-        <v>125718.5400464278</v>
+        <v>151055.8366577278</v>
       </c>
       <c r="AE10" t="n">
-        <v>172013.6528019953</v>
+        <v>206681.2598281946</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.084935340033277e-06</v>
+        <v>7.413257512220704e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.126302083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>155596.9112012988</v>
+        <v>186955.8904692206</v>
       </c>
     </row>
     <row r="11">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.1998099888826</v>
+        <v>148.5371066001827</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.567415218736</v>
+        <v>203.2350222449353</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.4795776961598</v>
+        <v>183.8385569640817</v>
       </c>
       <c r="AD11" t="n">
-        <v>123199.8099888827</v>
+        <v>148537.1066001827</v>
       </c>
       <c r="AE11" t="n">
-        <v>168567.415218736</v>
+        <v>203235.0222449353</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.1402604779472e-06</v>
+        <v>7.493915272217382e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>152479.5776961598</v>
+        <v>183838.5569640817</v>
       </c>
     </row>
     <row r="12">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.3216108669871</v>
+        <v>146.6589074782872</v>
       </c>
       <c r="AB12" t="n">
-        <v>165.9975803198625</v>
+        <v>200.6651873460618</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.1550042332481</v>
+        <v>181.51398350117</v>
       </c>
       <c r="AD12" t="n">
-        <v>121321.6108669871</v>
+        <v>146658.9074782872</v>
       </c>
       <c r="AE12" t="n">
-        <v>165997.5803198626</v>
+        <v>200665.1873460618</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.143227743129435e-06</v>
+        <v>7.498241207442117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.057942708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>150155.0042332481</v>
+        <v>181513.98350117</v>
       </c>
     </row>
     <row r="13">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.9305036134425</v>
+        <v>146.2678002247426</v>
       </c>
       <c r="AB13" t="n">
-        <v>165.4624501211288</v>
+        <v>200.130057147328</v>
       </c>
       <c r="AC13" t="n">
-        <v>149.6709461096213</v>
+        <v>181.0299253775432</v>
       </c>
       <c r="AD13" t="n">
-        <v>120930.5036134425</v>
+        <v>146267.8002247426</v>
       </c>
       <c r="AE13" t="n">
-        <v>165462.4501211288</v>
+        <v>200130.057147328</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.160074151905993e-06</v>
+        <v>7.522801355814809e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.038411458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>149670.9461096213</v>
+        <v>181029.9253775432</v>
       </c>
     </row>
     <row r="14">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>121.2375979602731</v>
+        <v>146.5748945715732</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.8826301545086</v>
+        <v>200.5502371807079</v>
       </c>
       <c r="AC14" t="n">
-        <v>150.0510247503419</v>
+        <v>181.4100040182638</v>
       </c>
       <c r="AD14" t="n">
-        <v>121237.5979602731</v>
+        <v>146574.8945715732</v>
       </c>
       <c r="AE14" t="n">
-        <v>165882.6301545086</v>
+        <v>200550.2371807079</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.156724013797018e-06</v>
+        <v>7.517917235399785e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>150051.0247503419</v>
+        <v>181410.0040182638</v>
       </c>
     </row>
   </sheetData>
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.33560230960083</v>
+        <v>122.991709379204</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.7058887561059</v>
+        <v>168.2826827838228</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.5178179695975</v>
+        <v>152.2220197252101</v>
       </c>
       <c r="AD2" t="n">
-        <v>93335.60230960083</v>
+        <v>122991.709379204</v>
       </c>
       <c r="AE2" t="n">
-        <v>127705.8887561059</v>
+        <v>168282.6827838228</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607749353920576e-06</v>
+        <v>8.984931712282647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.650390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>115517.8179695975</v>
+        <v>152222.0197252101</v>
       </c>
     </row>
     <row r="3">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.32421713364943</v>
+        <v>109.54505173076</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4808463547765</v>
+        <v>149.8843725645632</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0777620711288</v>
+        <v>135.5796184110802</v>
       </c>
       <c r="AD3" t="n">
-        <v>87324.21713364942</v>
+        <v>109545.05173076</v>
       </c>
       <c r="AE3" t="n">
-        <v>119480.8463547765</v>
+        <v>149884.3725645632</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.975803009886316e-06</v>
+        <v>9.574640124088918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.240234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>108077.7620711288</v>
+        <v>135579.6184110802</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.2537347575472</v>
+        <v>260.2492066668222</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.9926326872429</v>
+        <v>356.0844459462299</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.3617568659654</v>
+        <v>322.1002461927798</v>
       </c>
       <c r="AD2" t="n">
-        <v>219253.7347575472</v>
+        <v>260249.2066668222</v>
       </c>
       <c r="AE2" t="n">
-        <v>299992.6326872429</v>
+        <v>356084.44594623</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.422662518862233e-06</v>
+        <v>5.082117157202611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.462890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>271361.7568659654</v>
+        <v>322100.2461927797</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.3321073207417</v>
+        <v>174.0318352952112</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.3227773037601</v>
+        <v>238.118034793505</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.8224982067664</v>
+        <v>215.3923837536426</v>
       </c>
       <c r="AD3" t="n">
-        <v>149332.1073207417</v>
+        <v>174031.8352952111</v>
       </c>
       <c r="AE3" t="n">
-        <v>204322.7773037601</v>
+        <v>238118.034793505</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.511736735482233e-06</v>
+        <v>6.699221598919928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.180989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>184822.4982067664</v>
+        <v>215392.3837536426</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.2140209474707</v>
+        <v>152.9990002679607</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.4280798636479</v>
+        <v>209.3399820060421</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.6854701363667</v>
+        <v>189.3608679339552</v>
       </c>
       <c r="AD4" t="n">
-        <v>128214.0209474707</v>
+        <v>152999.0002679607</v>
       </c>
       <c r="AE4" t="n">
-        <v>175428.0798636479</v>
+        <v>209339.9820060421</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.923523020969584e-06</v>
+        <v>7.310659663597035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.578776041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>158685.4701363668</v>
+        <v>189360.8679339552</v>
       </c>
     </row>
     <row r="5">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.5451581725307</v>
+        <v>148.1595452924286</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.0399358392897</v>
+        <v>202.718426206837</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.9070016118748</v>
+        <v>183.3712641268122</v>
       </c>
       <c r="AD5" t="n">
-        <v>123545.1581725307</v>
+        <v>148159.5452924286</v>
       </c>
       <c r="AE5" t="n">
-        <v>169039.9358392897</v>
+        <v>202718.426206837</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.075081868914783e-06</v>
+        <v>7.535700787933243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.383463541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>152907.0016118748</v>
+        <v>183371.2641268122</v>
       </c>
     </row>
     <row r="6">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.491515099678</v>
+        <v>144.1059022195758</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.4935625529044</v>
+        <v>197.1720529204517</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.8899664075566</v>
+        <v>178.354228922494</v>
       </c>
       <c r="AD6" t="n">
-        <v>119491.515099678</v>
+        <v>144105.9022195758</v>
       </c>
       <c r="AE6" t="n">
-        <v>163493.5625529044</v>
+        <v>197172.0529204517</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.198677462577249e-06</v>
+        <v>7.719220864378136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.23046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>147889.9664075566</v>
+        <v>178354.228922494</v>
       </c>
     </row>
     <row r="7">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.6043055618551</v>
+        <v>140.2186926817529</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.1749109716762</v>
+        <v>191.8534013392236</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.0789194684647</v>
+        <v>173.5431819834022</v>
       </c>
       <c r="AD7" t="n">
-        <v>115604.3055618551</v>
+        <v>140218.6926817529</v>
       </c>
       <c r="AE7" t="n">
-        <v>158174.9109716762</v>
+        <v>191853.4013392236</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.325059430331945e-06</v>
+        <v>7.906878269438533e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.083984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>143078.9194684647</v>
+        <v>173543.1819834022</v>
       </c>
     </row>
     <row r="8">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.5933881434005</v>
+        <v>138.2077752632983</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.4234850443328</v>
+        <v>189.1019754118801</v>
       </c>
       <c r="AC8" t="n">
-        <v>140.5900857699756</v>
+        <v>171.054348284913</v>
       </c>
       <c r="AD8" t="n">
-        <v>113593.3881434005</v>
+        <v>138207.7752632983</v>
       </c>
       <c r="AE8" t="n">
-        <v>155423.4850443328</v>
+        <v>189101.9754118801</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.347648963151092e-06</v>
+        <v>7.940420183571377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.057942708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>140590.0857699756</v>
+        <v>171054.348284913</v>
       </c>
     </row>
     <row r="9">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.7391790013092</v>
+        <v>136.353566121207</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.8864742941906</v>
+        <v>186.5649646617379</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.2952037651092</v>
+        <v>168.7594662800466</v>
       </c>
       <c r="AD9" t="n">
-        <v>111739.1790013092</v>
+        <v>136353.566121207</v>
       </c>
       <c r="AE9" t="n">
-        <v>152886.4742941906</v>
+        <v>186564.9646617379</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.388349927569731e-06</v>
+        <v>8.000854733705e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.012369791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>138295.2037651092</v>
+        <v>168759.4662800466</v>
       </c>
     </row>
     <row r="10">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>111.916455816612</v>
+        <v>136.5308429365098</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.1290322537889</v>
+        <v>186.8075226213363</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.5146123334758</v>
+        <v>168.9788748484132</v>
       </c>
       <c r="AD10" t="n">
-        <v>111916.455816612</v>
+        <v>136530.8429365098</v>
       </c>
       <c r="AE10" t="n">
-        <v>153129.032253789</v>
+        <v>186807.5226213363</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.390638734859776e-06</v>
+        <v>8.004253253639165e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>138514.6123334758</v>
+        <v>168978.8748484132</v>
       </c>
     </row>
   </sheetData>
@@ -13045,28 +13045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.5575314029943</v>
+        <v>300.2648106652072</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.7698212188151</v>
+        <v>410.8355607006756</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.0065260007532</v>
+        <v>371.6259913987331</v>
       </c>
       <c r="AD2" t="n">
-        <v>258557.5314029943</v>
+        <v>300264.8106652072</v>
       </c>
       <c r="AE2" t="n">
-        <v>353769.8212188152</v>
+        <v>410835.5607006755</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.097288787565135e-06</v>
+        <v>4.554385003406163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>320006.5260007532</v>
+        <v>371625.9913987331</v>
       </c>
     </row>
     <row r="3">
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.2754465189759</v>
+        <v>194.5388788049701</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.6641808977144</v>
+        <v>266.1766764304517</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.6043011770229</v>
+        <v>240.7731480133189</v>
       </c>
       <c r="AD3" t="n">
-        <v>161275.4465189759</v>
+        <v>194538.8788049701</v>
       </c>
       <c r="AE3" t="n">
-        <v>220664.1808977144</v>
+        <v>266176.6764304517</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.271228125293658e-06</v>
+        <v>6.280595273538071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.431640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>199604.3011770229</v>
+        <v>240773.1480133189</v>
       </c>
     </row>
     <row r="4">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.2493577201113</v>
+        <v>171.598041352126</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.1588703637802</v>
+        <v>234.7880105491668</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.1058132624563</v>
+        <v>212.3801723494645</v>
       </c>
       <c r="AD4" t="n">
-        <v>138249.3577201113</v>
+        <v>171598.041352126</v>
       </c>
       <c r="AE4" t="n">
-        <v>189158.8703637802</v>
+        <v>234788.0105491668</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.683764449041944e-06</v>
+        <v>6.887206208166651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.77734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>171105.8132624562</v>
+        <v>212380.1723494645</v>
       </c>
     </row>
     <row r="5">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.7586385954585</v>
+        <v>168.1073222274732</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.3827144577735</v>
+        <v>230.0118546431601</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.7854869727405</v>
+        <v>208.0598460597488</v>
       </c>
       <c r="AD5" t="n">
-        <v>134758.6385954585</v>
+        <v>168107.3222274732</v>
       </c>
       <c r="AE5" t="n">
-        <v>184382.7144577735</v>
+        <v>230011.8546431601</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.79638072271939e-06</v>
+        <v>7.052801960824653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.617838541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>166785.4869727405</v>
+        <v>208059.8460597488</v>
       </c>
     </row>
     <row r="6">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.541410349217</v>
+        <v>152.5316773681362</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.5077843696324</v>
+        <v>208.7005701976713</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.8530063526569</v>
+        <v>188.782480691155</v>
       </c>
       <c r="AD6" t="n">
-        <v>127541.410349217</v>
+        <v>152531.6773681362</v>
       </c>
       <c r="AE6" t="n">
-        <v>174507.7843696324</v>
+        <v>208700.5701976713</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.018298158987672e-06</v>
+        <v>7.379118785975835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.324869791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157853.0063526569</v>
+        <v>188782.480691155</v>
       </c>
     </row>
     <row r="7">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.1678510863898</v>
+        <v>149.158118105309</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.8919317553038</v>
+        <v>204.0847175833427</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.6776842334486</v>
+        <v>184.6071585719466</v>
       </c>
       <c r="AD7" t="n">
-        <v>124167.8510863898</v>
+        <v>149158.118105309</v>
       </c>
       <c r="AE7" t="n">
-        <v>169891.9317553038</v>
+        <v>204084.7175833427</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.111413779214478e-06</v>
+        <v>7.51603994942899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>153677.6842334486</v>
+        <v>184607.1585719466</v>
       </c>
     </row>
     <row r="8">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.8139756428641</v>
+        <v>147.8042426617833</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.0394996447038</v>
+        <v>202.2322854727427</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.0020456435788</v>
+        <v>182.9315199820769</v>
       </c>
       <c r="AD8" t="n">
-        <v>122813.9756428641</v>
+        <v>147804.2426617833</v>
       </c>
       <c r="AE8" t="n">
-        <v>168039.4996447038</v>
+        <v>202232.2854727427</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.133059504544688e-06</v>
+        <v>7.54786874344637e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>152002.0456435788</v>
+        <v>182931.5199820769</v>
       </c>
     </row>
     <row r="9">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.5915064481422</v>
+        <v>144.5817734670614</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.63037512718</v>
+        <v>197.823160955219</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.013721781761</v>
+        <v>178.9431961202591</v>
       </c>
       <c r="AD9" t="n">
-        <v>119591.5064481422</v>
+        <v>144581.7734670614</v>
       </c>
       <c r="AE9" t="n">
-        <v>163630.37512718</v>
+        <v>197823.1609552189</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.219447399331022e-06</v>
+        <v>7.674897173623851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>148013.721781761</v>
+        <v>178943.1961202591</v>
       </c>
     </row>
     <row r="10">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.1908218432504</v>
+        <v>142.1810888621695</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.3456525400387</v>
+        <v>194.5384383680777</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.0424885081983</v>
+        <v>175.9719628466964</v>
       </c>
       <c r="AD10" t="n">
-        <v>117190.8218432504</v>
+        <v>142181.0888621695</v>
       </c>
       <c r="AE10" t="n">
-        <v>160345.6525400387</v>
+        <v>194538.4383680777</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.270734117906206e-06</v>
+        <v>7.750311343232607e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>145042.4885081984</v>
+        <v>175971.9628466964</v>
       </c>
     </row>
     <row r="11">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.220789572509</v>
+        <v>141.2110565914282</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.0184115924076</v>
+        <v>193.2111974204466</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.8419175738143</v>
+        <v>174.7713919123125</v>
       </c>
       <c r="AD11" t="n">
-        <v>116220.789572509</v>
+        <v>141211.0565914282</v>
       </c>
       <c r="AE11" t="n">
-        <v>159018.4115924076</v>
+        <v>193211.1974204466</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.274146732260068e-06</v>
+        <v>7.755329396343453e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.018880208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>143841.9175738143</v>
+        <v>174771.3919123125</v>
       </c>
     </row>
     <row r="12">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.5990425084621</v>
+        <v>141.5893095273813</v>
       </c>
       <c r="AB12" t="n">
-        <v>159.5359539467202</v>
+        <v>193.7287397747591</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.3100664122067</v>
+        <v>175.2395407507048</v>
       </c>
       <c r="AD12" t="n">
-        <v>116599.0425084621</v>
+        <v>141589.3095273813</v>
       </c>
       <c r="AE12" t="n">
-        <v>159535.9539467202</v>
+        <v>193728.7397747591</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.264006392465734e-06</v>
+        <v>7.740418609956932e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>144310.0664122067</v>
+        <v>175239.5407507048</v>
       </c>
     </row>
   </sheetData>
@@ -14402,28 +14402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.848920731976</v>
+        <v>405.2556406359306</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.1517040581246</v>
+        <v>554.4886461351365</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.9449449340007</v>
+        <v>501.5690279777008</v>
       </c>
       <c r="AD2" t="n">
-        <v>353848.920731976</v>
+        <v>405255.6406359306</v>
       </c>
       <c r="AE2" t="n">
-        <v>484151.7040581246</v>
+        <v>554488.6461351365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.541317272895272e-06</v>
+        <v>3.676707961138881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>437944.9449340007</v>
+        <v>501569.0279777009</v>
       </c>
     </row>
     <row r="3">
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.9385839828895</v>
+        <v>231.1813134701852</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.4600589224001</v>
+        <v>316.3124720895009</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.7431690884931</v>
+        <v>286.1240537007155</v>
       </c>
       <c r="AD3" t="n">
-        <v>196938.5839828895</v>
+        <v>231181.3134701852</v>
       </c>
       <c r="AE3" t="n">
-        <v>269460.0589224001</v>
+        <v>316312.4720895009</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814281663266027e-06</v>
+        <v>5.518397843091424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.030598958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>243743.1690884931</v>
+        <v>286124.0537007155</v>
       </c>
     </row>
     <row r="4">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.0011738582596</v>
+        <v>192.7472489917979</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.498373644581</v>
+        <v>263.7252894789419</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.6908095634896</v>
+        <v>238.5557179919172</v>
       </c>
       <c r="AD4" t="n">
-        <v>167001.1738582597</v>
+        <v>192747.2489917979</v>
       </c>
       <c r="AE4" t="n">
-        <v>228498.373644581</v>
+        <v>263725.2894789419</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.274773661054293e-06</v>
+        <v>6.184625005030932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>206690.8095634896</v>
+        <v>238555.7179919172</v>
       </c>
     </row>
     <row r="5">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.5706101490574</v>
+        <v>182.813250127802</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.2808632785779</v>
+        <v>250.1331539761302</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.8800229938117</v>
+        <v>226.2607968248076</v>
       </c>
       <c r="AD5" t="n">
-        <v>148570.6101490573</v>
+        <v>182813.250127802</v>
       </c>
       <c r="AE5" t="n">
-        <v>203280.8632785779</v>
+        <v>250133.1539761302</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.532076976393169e-06</v>
+        <v>6.556884367537086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.761067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>183880.0229938117</v>
+        <v>226260.7968248076</v>
       </c>
     </row>
     <row r="6">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.8770811737648</v>
+        <v>179.1197211525094</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.2272139875869</v>
+        <v>245.0795046851393</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.30868689831</v>
+        <v>221.6894607293059</v>
       </c>
       <c r="AD6" t="n">
-        <v>144877.0811737648</v>
+        <v>179119.7211525094</v>
       </c>
       <c r="AE6" t="n">
-        <v>198227.2139875869</v>
+        <v>245079.5046851393</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636824083186209e-06</v>
+        <v>6.708429601798004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>179308.68689831</v>
+        <v>221689.4607293059</v>
       </c>
     </row>
     <row r="7">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.4871081649578</v>
+        <v>166.1478424439244</v>
       </c>
       <c r="AB7" t="n">
-        <v>192.2206592449997</v>
+        <v>227.330807957163</v>
       </c>
       <c r="AC7" t="n">
-        <v>173.8753893101009</v>
+        <v>205.6346747065897</v>
       </c>
       <c r="AD7" t="n">
-        <v>140487.1081649578</v>
+        <v>166147.8424439244</v>
       </c>
       <c r="AE7" t="n">
-        <v>192220.6592449997</v>
+        <v>227330.807957163</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.754182252252623e-06</v>
+        <v>6.878220174235889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>173875.3893101009</v>
+        <v>205634.6747065897</v>
       </c>
     </row>
     <row r="8">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.5707009607361</v>
+        <v>163.2314352397028</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.2303022453804</v>
+        <v>223.3404509575437</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.2658663820228</v>
+        <v>202.0251517785115</v>
       </c>
       <c r="AD8" t="n">
-        <v>137570.7009607361</v>
+        <v>163231.4352397028</v>
       </c>
       <c r="AE8" t="n">
-        <v>188230.3022453804</v>
+        <v>223340.4509575437</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.829001614247652e-06</v>
+        <v>6.986466770136545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.344401041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>170265.8663820227</v>
+        <v>202025.1517785115</v>
       </c>
     </row>
     <row r="9">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.23659533677</v>
+        <v>158.8973296157366</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.3001877234275</v>
+        <v>217.4103364355908</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.9017136670751</v>
+        <v>196.6609990635639</v>
       </c>
       <c r="AD9" t="n">
-        <v>133236.59533677</v>
+        <v>158897.3296157366</v>
       </c>
       <c r="AE9" t="n">
-        <v>182300.1877234275</v>
+        <v>217410.3364355908</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.950030167110049e-06</v>
+        <v>7.161567552939367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.188151041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>164901.7136670751</v>
+        <v>196660.9990635639</v>
       </c>
     </row>
     <row r="10">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.088594648535</v>
+        <v>158.7493289275016</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.097686652455</v>
+        <v>217.2078353646182</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.7185390141041</v>
+        <v>196.4778244105929</v>
       </c>
       <c r="AD10" t="n">
-        <v>133088.594648535</v>
+        <v>158749.3289275016</v>
       </c>
       <c r="AE10" t="n">
-        <v>182097.686652455</v>
+        <v>217207.8353646182</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.93807789167185e-06</v>
+        <v>7.144275329443287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.204427083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>164718.5390141041</v>
+        <v>196477.8244105929</v>
       </c>
     </row>
     <row r="11">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.5167730807486</v>
+        <v>157.1775073597152</v>
       </c>
       <c r="AB11" t="n">
-        <v>179.9470510395371</v>
+        <v>215.0571997517004</v>
       </c>
       <c r="AC11" t="n">
-        <v>162.7731570456464</v>
+        <v>194.5324424421352</v>
       </c>
       <c r="AD11" t="n">
-        <v>131516.7730807486</v>
+        <v>157177.5073597152</v>
       </c>
       <c r="AE11" t="n">
-        <v>179947.0510395371</v>
+        <v>215057.1997517004</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.958688508372367e-06</v>
+        <v>7.174094203031016e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>162773.1570456464</v>
+        <v>194532.4424421352</v>
       </c>
     </row>
     <row r="12">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.3594732344118</v>
+        <v>155.0202075133784</v>
       </c>
       <c r="AB12" t="n">
-        <v>176.9953382164283</v>
+        <v>212.1054869285916</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.1031515516192</v>
+        <v>191.862436948108</v>
       </c>
       <c r="AD12" t="n">
-        <v>129359.4732344118</v>
+        <v>155020.2075133784</v>
       </c>
       <c r="AE12" t="n">
-        <v>176995.3382164283</v>
+        <v>212105.4869285916</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.01402660252718e-06</v>
+        <v>7.254155836225463e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.110026041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>160103.1515516192</v>
+        <v>191862.436948108</v>
       </c>
     </row>
     <row r="13">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.0261424232662</v>
+        <v>153.6868767022328</v>
       </c>
       <c r="AB13" t="n">
-        <v>175.1710161782159</v>
+        <v>210.2811648903792</v>
       </c>
       <c r="AC13" t="n">
-        <v>158.4529402482812</v>
+        <v>190.21222564477</v>
       </c>
       <c r="AD13" t="n">
-        <v>128026.1424232662</v>
+        <v>153686.8767022328</v>
       </c>
       <c r="AE13" t="n">
-        <v>175171.0161782159</v>
+        <v>210281.1648903792</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.019955684043767e-06</v>
+        <v>7.262733868353438e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.103515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>158452.9402482812</v>
+        <v>190212.22564477</v>
       </c>
     </row>
     <row r="14">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>126.9561998299842</v>
+        <v>152.6169341089508</v>
       </c>
       <c r="AB14" t="n">
-        <v>173.7070735195524</v>
+        <v>208.8172222317157</v>
       </c>
       <c r="AC14" t="n">
-        <v>157.1287142223036</v>
+        <v>188.8879996187924</v>
       </c>
       <c r="AD14" t="n">
-        <v>126956.1998299842</v>
+        <v>152616.9341089508</v>
       </c>
       <c r="AE14" t="n">
-        <v>173707.0735195524</v>
+        <v>208817.2222317157</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.042072099224687e-06</v>
+        <v>7.294731289783192e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.077473958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>157128.7142223036</v>
+        <v>188887.9996187924</v>
       </c>
     </row>
     <row r="15">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.8159432860118</v>
+        <v>150.4766775649784</v>
       </c>
       <c r="AB15" t="n">
-        <v>170.7786800946361</v>
+        <v>205.8888288067994</v>
       </c>
       <c r="AC15" t="n">
-        <v>154.4798025558344</v>
+        <v>186.2390879523232</v>
       </c>
       <c r="AD15" t="n">
-        <v>124815.9432860118</v>
+        <v>150476.6775649784</v>
       </c>
       <c r="AE15" t="n">
-        <v>170778.6800946361</v>
+        <v>205888.8288067994</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.075858452628731e-06</v>
+        <v>7.343612456988645e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.03515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>154479.8025558344</v>
+        <v>186239.0879523232</v>
       </c>
     </row>
     <row r="16">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>125.3674008701131</v>
+        <v>151.0281351490797</v>
       </c>
       <c r="AB16" t="n">
-        <v>171.5332086897946</v>
+        <v>206.6433574019579</v>
       </c>
       <c r="AC16" t="n">
-        <v>155.1623200008588</v>
+        <v>186.9216053973476</v>
       </c>
       <c r="AD16" t="n">
-        <v>125367.4008701131</v>
+        <v>151028.1351490797</v>
       </c>
       <c r="AE16" t="n">
-        <v>171533.2086897946</v>
+        <v>206643.3574019579</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.064094402000582e-06</v>
+        <v>7.326592551972818e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>155162.3200008587</v>
+        <v>186921.6053973476</v>
       </c>
     </row>
   </sheetData>
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.059568564017</v>
+        <v>225.4532738754395</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.2066659611333</v>
+        <v>308.4751156127018</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.0409771396641</v>
+        <v>279.0346835262607</v>
       </c>
       <c r="AD2" t="n">
-        <v>185059.568564017</v>
+        <v>225453.2738754395</v>
       </c>
       <c r="AE2" t="n">
-        <v>253206.6659611333</v>
+        <v>308475.1156127017</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.771235976079512e-06</v>
+        <v>5.66320704117316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>229040.9771396641</v>
+        <v>279034.6835262607</v>
       </c>
     </row>
     <row r="3">
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.634597713044</v>
+        <v>160.9324937912677</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.0035315488425</v>
+        <v>220.1949378456578</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.206001520378</v>
+        <v>199.1798420232676</v>
       </c>
       <c r="AD3" t="n">
-        <v>128634.597713044</v>
+        <v>160932.4937912677</v>
       </c>
       <c r="AE3" t="n">
-        <v>176003.5315488425</v>
+        <v>220194.9378456578</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.801911510254807e-06</v>
+        <v>7.210956632906309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159206.001520378</v>
+        <v>199179.8420232676</v>
       </c>
     </row>
     <row r="4">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.3102341775048</v>
+        <v>141.5124105310807</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.5090377638659</v>
+        <v>193.6235231754763</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.1902804755761</v>
+        <v>175.1443658759851</v>
       </c>
       <c r="AD4" t="n">
-        <v>117310.2341775048</v>
+        <v>141512.4105310806</v>
       </c>
       <c r="AE4" t="n">
-        <v>160509.0377638659</v>
+        <v>193623.5231754763</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217317632889914e-06</v>
+        <v>7.83476561584331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.350911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>145190.2804755761</v>
+        <v>175144.3658759851</v>
       </c>
     </row>
     <row r="5">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.9275960881928</v>
+        <v>138.1297724417687</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.8807630986113</v>
+        <v>188.9952485102217</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.0037218485476</v>
+        <v>170.9578072489567</v>
       </c>
       <c r="AD5" t="n">
-        <v>113927.5960881928</v>
+        <v>138129.7724417687</v>
       </c>
       <c r="AE5" t="n">
-        <v>155880.7630986113</v>
+        <v>188995.2485102217</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324732696463454e-06</v>
+        <v>7.996069164127265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>141003.7218485476</v>
+        <v>170957.8072489567</v>
       </c>
     </row>
     <row r="6">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.8026648244686</v>
+        <v>134.0048411780444</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.2368501644628</v>
+        <v>183.3513355760732</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.8984560435509</v>
+        <v>165.8525414439599</v>
       </c>
       <c r="AD6" t="n">
-        <v>109802.6648244685</v>
+        <v>134004.8411780444</v>
       </c>
       <c r="AE6" t="n">
-        <v>150236.8501644628</v>
+        <v>183351.3355760732</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.455870707726694e-06</v>
+        <v>8.192997097956395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>135898.4560435509</v>
+        <v>165852.5414439599</v>
       </c>
     </row>
     <row r="7">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.6553459478992</v>
+        <v>131.8575223014751</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.2987937445192</v>
+        <v>180.4132791561296</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.2408036047377</v>
+        <v>163.1948890051467</v>
       </c>
       <c r="AD7" t="n">
-        <v>107655.3459478992</v>
+        <v>131857.5223014751</v>
       </c>
       <c r="AE7" t="n">
-        <v>147298.7937445192</v>
+        <v>180413.2791561296</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.496800428633387e-06</v>
+        <v>8.254460630098717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>133240.8036047377</v>
+        <v>163194.8890051467</v>
       </c>
     </row>
     <row r="8">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.255265608805</v>
+        <v>131.4574419623809</v>
       </c>
       <c r="AB8" t="n">
-        <v>146.7513861742718</v>
+        <v>179.8658715858822</v>
       </c>
       <c r="AC8" t="n">
-        <v>132.7456398447032</v>
+        <v>162.6997252451122</v>
       </c>
       <c r="AD8" t="n">
-        <v>107255.265608805</v>
+        <v>131457.4419623809</v>
       </c>
       <c r="AE8" t="n">
-        <v>146751.3861742718</v>
+        <v>179865.8715858822</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.517977995669688e-06</v>
+        <v>8.286262656679819e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.005859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>132745.6398447032</v>
+        <v>162699.7252451122</v>
       </c>
     </row>
   </sheetData>
@@ -17116,28 +17116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.4947188037044</v>
+        <v>173.9274867720257</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.9675606904619</v>
+        <v>237.9752605405508</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.3601303369094</v>
+        <v>215.2632356750054</v>
       </c>
       <c r="AD2" t="n">
-        <v>142494.7188037044</v>
+        <v>173927.4867720257</v>
       </c>
       <c r="AE2" t="n">
-        <v>194967.5606904619</v>
+        <v>237975.2605405508</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.406804123404084e-06</v>
+        <v>6.758921497229602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>176360.1303369094</v>
+        <v>215263.2356750054</v>
       </c>
     </row>
     <row r="3">
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.241004492805</v>
+        <v>133.9009213236177</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.8366058368618</v>
+        <v>183.2091478466261</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.4409718763387</v>
+        <v>165.7239239118495</v>
       </c>
       <c r="AD3" t="n">
-        <v>110241.004492805</v>
+        <v>133900.9213236177</v>
       </c>
       <c r="AE3" t="n">
-        <v>150836.6058368618</v>
+        <v>183209.1478466261</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.304476624679437e-06</v>
+        <v>8.135723777621203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136440.9718763387</v>
+        <v>165723.9239118495</v>
       </c>
     </row>
     <row r="4">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.3226933624717</v>
+        <v>126.8120179926922</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.3706673339984</v>
+        <v>173.5097975689158</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.8784492586574</v>
+        <v>156.9502660115172</v>
       </c>
       <c r="AD4" t="n">
-        <v>103322.6933624717</v>
+        <v>126812.0179926922</v>
       </c>
       <c r="AE4" t="n">
-        <v>141370.6673339984</v>
+        <v>173509.7975689158</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.589241589935145e-06</v>
+        <v>8.572481117277562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>127878.4492586574</v>
+        <v>156950.2660115172</v>
       </c>
     </row>
     <row r="5">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.14627441184292</v>
+        <v>122.6355990420633</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.6563066751505</v>
+        <v>167.795436910068</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.7094591609327</v>
+        <v>151.7812759137924</v>
       </c>
       <c r="AD5" t="n">
-        <v>99146.27441184293</v>
+        <v>122635.5990420633</v>
       </c>
       <c r="AE5" t="n">
-        <v>135656.3066751505</v>
+        <v>167795.436910068</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.732419505426843e-06</v>
+        <v>8.792079779674617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>122709.4591609327</v>
+        <v>151781.2759137924</v>
       </c>
     </row>
     <row r="6">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.51410579099732</v>
+        <v>123.0034304212177</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.1595897956845</v>
+        <v>168.2987200306019</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.1647096468053</v>
+        <v>152.2365263996651</v>
       </c>
       <c r="AD6" t="n">
-        <v>99514.10579099732</v>
+        <v>123003.4304212177</v>
       </c>
       <c r="AE6" t="n">
-        <v>136159.5897956845</v>
+        <v>168298.7200306019</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.728495369965219e-06</v>
+        <v>8.786061149668178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.025390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>123164.7096468053</v>
+        <v>152236.526399665</v>
       </c>
     </row>
   </sheetData>
@@ -32466,28 +32466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.7366007466575</v>
+        <v>144.7414705254824</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.5653877812886</v>
+        <v>198.0416655158875</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.6686209474786</v>
+        <v>179.1408469123306</v>
       </c>
       <c r="AD2" t="n">
-        <v>121736.6007466575</v>
+        <v>144741.4705254824</v>
       </c>
       <c r="AE2" t="n">
-        <v>166565.3877812886</v>
+        <v>198041.6655158875</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.928364816993994e-06</v>
+        <v>7.700472812755535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.24609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>150668.6209474786</v>
+        <v>179140.8469123306</v>
       </c>
     </row>
     <row r="3">
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.68887024956211</v>
+        <v>119.6083991738155</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.2939778872994</v>
+        <v>163.6534884997006</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.6680263135349</v>
+        <v>148.0346292464481</v>
       </c>
       <c r="AD3" t="n">
-        <v>96688.87024956211</v>
+        <v>119608.3991738155</v>
       </c>
       <c r="AE3" t="n">
-        <v>132293.9778872994</v>
+        <v>163653.4884997006</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.753178304987603e-06</v>
+        <v>8.989227617997985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.207682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119668.0263135349</v>
+        <v>148034.6292464481</v>
       </c>
     </row>
     <row r="4">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.21622972237482</v>
+        <v>117.1357586466282</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.9108020328022</v>
+        <v>160.2703126452034</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.6077360142727</v>
+        <v>144.9743389471859</v>
       </c>
       <c r="AD4" t="n">
-        <v>94216.22972237482</v>
+        <v>117135.7586466282</v>
       </c>
       <c r="AE4" t="n">
-        <v>128910.8020328022</v>
+        <v>160270.3126452034</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.844239118373436e-06</v>
+        <v>9.13150834270552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.110026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>116607.7360142727</v>
+        <v>144974.3389471859</v>
       </c>
     </row>
     <row r="5">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.52491573826316</v>
+        <v>117.4444446625165</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.3331598580063</v>
+        <v>160.6926704704076</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.9897846014224</v>
+        <v>145.3563875343356</v>
       </c>
       <c r="AD5" t="n">
-        <v>94524.91573826317</v>
+        <v>117444.4446625165</v>
       </c>
       <c r="AE5" t="n">
-        <v>129333.1598580063</v>
+        <v>160692.6704704076</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.845445948430356e-06</v>
+        <v>9.133393990864294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.110026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>116989.7846014224</v>
+        <v>145356.3875343356</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.43816744086634</v>
+        <v>105.2281845723396</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1637817247006</v>
+        <v>143.9778444716774</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2681506267986</v>
+        <v>130.2368010695133</v>
       </c>
       <c r="AD2" t="n">
-        <v>83438.16744086634</v>
+        <v>105228.1845723396</v>
       </c>
       <c r="AE2" t="n">
-        <v>114163.7817247006</v>
+        <v>143977.8444716774</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.947178610389064e-06</v>
+        <v>9.691975040607862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103268.1506267986</v>
+        <v>130236.8010695133</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.71752912074881</v>
+        <v>105.507546252222</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.5460166996831</v>
+        <v>144.3600794466599</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.613905632239</v>
+        <v>130.5825560749537</v>
       </c>
       <c r="AD3" t="n">
-        <v>83717.5291207488</v>
+        <v>105507.546252222</v>
       </c>
       <c r="AE3" t="n">
-        <v>114546.0166996831</v>
+        <v>144360.0794466599</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959542807084259e-06</v>
+        <v>9.71212467686692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103613.905632239</v>
+        <v>130582.5560749538</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.2626488704001</v>
+        <v>275.748627066509</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.5284911229967</v>
+        <v>377.2914367232501</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.9377017948757</v>
+        <v>341.2832715342396</v>
       </c>
       <c r="AD2" t="n">
-        <v>234262.6488704001</v>
+        <v>275748.627066509</v>
       </c>
       <c r="AE2" t="n">
-        <v>320528.4911229967</v>
+        <v>377291.4367232501</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.253864819144523e-06</v>
+        <v>4.807197425115635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>289937.7017948757</v>
+        <v>341283.2715342396</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.4883677884848</v>
+        <v>188.5065581447769</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.7460444707655</v>
+        <v>257.9229891759744</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.4418605774852</v>
+        <v>233.3071810862835</v>
       </c>
       <c r="AD3" t="n">
-        <v>155488.3677884848</v>
+        <v>188506.5581447769</v>
       </c>
       <c r="AE3" t="n">
-        <v>212746.0444707655</v>
+        <v>257922.9891759744</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382111572759279e-06</v>
+        <v>6.474047521948449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.314453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>192441.8605774852</v>
+        <v>233307.1810862835</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.5264988573069</v>
+        <v>166.6299405596196</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.6968465098665</v>
+        <v>227.9904358677246</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.2605158956507</v>
+        <v>206.2313486551611</v>
       </c>
       <c r="AD4" t="n">
-        <v>133526.4988573069</v>
+        <v>166629.9405596196</v>
       </c>
       <c r="AE4" t="n">
-        <v>182696.8465098665</v>
+        <v>227990.4358677246</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789903298928321e-06</v>
+        <v>7.076511190534002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>165260.5158956507</v>
+        <v>206231.3486551611</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.0790043828994</v>
+        <v>152.885339954542</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.2433442434911</v>
+        <v>209.1844669508837</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.5183654245196</v>
+        <v>189.2201950173943</v>
       </c>
       <c r="AD5" t="n">
-        <v>128079.0043828994</v>
+        <v>152885.3399545421</v>
       </c>
       <c r="AE5" t="n">
-        <v>175243.3442434911</v>
+        <v>209184.4669508837</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.967456663401342e-06</v>
+        <v>7.338825123028508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>158518.3654245196</v>
+        <v>189220.1950173943</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.4558668157161</v>
+        <v>148.2622023873588</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.9177634656394</v>
+        <v>202.8588861730319</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.7964891980956</v>
+        <v>183.4983187909703</v>
       </c>
       <c r="AD6" t="n">
-        <v>123455.8668157161</v>
+        <v>148262.2023873588</v>
       </c>
       <c r="AE6" t="n">
-        <v>168917.7634656394</v>
+        <v>202858.8861730319</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.112808169758625e-06</v>
+        <v>7.553564648464944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.26953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>152796.4891980956</v>
+        <v>183498.3187909703</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.1501515488213</v>
+        <v>144.956487120464</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.3947379996112</v>
+        <v>198.3358607070038</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.7051349344377</v>
+        <v>179.4069645273124</v>
       </c>
       <c r="AD7" t="n">
-        <v>120150.1515488213</v>
+        <v>144956.487120464</v>
       </c>
       <c r="AE7" t="n">
-        <v>164394.7379996112</v>
+        <v>198335.8607070038</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.207838118020668e-06</v>
+        <v>7.693960069905431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.155598958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>148705.1349344377</v>
+        <v>179406.9645273124</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.8040563826848</v>
+        <v>142.6103919543274</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.1847070908909</v>
+        <v>195.1258297982835</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.801464870338</v>
+        <v>176.5032944632127</v>
       </c>
       <c r="AD8" t="n">
-        <v>117804.0563826848</v>
+        <v>142610.3919543274</v>
       </c>
       <c r="AE8" t="n">
-        <v>161184.7070908909</v>
+        <v>195125.8297982835</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.253531274490709e-06</v>
+        <v>7.761466262183552e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.100260416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>145801.464870338</v>
+        <v>176503.2944632127</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.0359571269704</v>
+        <v>139.8422926986131</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.3972715693041</v>
+        <v>191.3383942766967</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.375496879231</v>
+        <v>173.0773264721057</v>
       </c>
       <c r="AD9" t="n">
-        <v>115035.9571269704</v>
+        <v>139842.2926986131</v>
       </c>
       <c r="AE9" t="n">
-        <v>157397.2715693041</v>
+        <v>191338.3942766967</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.316950224418954e-06</v>
+        <v>7.855160201466115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>142375.496879231</v>
+        <v>173077.3264721057</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.2231630896784</v>
+        <v>138.2412639374195</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.9709738575682</v>
+        <v>189.1477960932287</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.2305861771717</v>
+        <v>171.0957959047434</v>
       </c>
       <c r="AD10" t="n">
-        <v>105223.1630896784</v>
+        <v>138241.2639374195</v>
       </c>
       <c r="AE10" t="n">
-        <v>143970.9738575682</v>
+        <v>189147.7960932287</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.354568297202478e-06</v>
+        <v>7.910736420108879e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.986328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>130230.5861771717</v>
+        <v>171095.7959047434</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.5109138383887</v>
+        <v>138.5290146861298</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.3646871266206</v>
+        <v>189.5415093622811</v>
       </c>
       <c r="AC11" t="n">
-        <v>130.5867240044059</v>
+        <v>171.4519337319776</v>
       </c>
       <c r="AD11" t="n">
-        <v>105510.9138383887</v>
+        <v>138529.0146861298</v>
       </c>
       <c r="AE11" t="n">
-        <v>144364.6871266206</v>
+        <v>189541.5093622811</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.351515521662454e-06</v>
+        <v>7.906226308124779e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>130586.7240044059</v>
+        <v>171451.9337319776</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.6767095162334</v>
+        <v>374.8506065604732</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.8687535687311</v>
+        <v>512.887137137662</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.6019812983302</v>
+        <v>463.9379086108607</v>
       </c>
       <c r="AD2" t="n">
-        <v>323676.7095162334</v>
+        <v>374850.6065604732</v>
       </c>
       <c r="AE2" t="n">
-        <v>442868.7535687311</v>
+        <v>512887.1371376619</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667599379629681e-06</v>
+        <v>3.873805165208871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57877604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>400601.9812983302</v>
+        <v>463937.9086108608</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.0399381749005</v>
+        <v>215.1558695377266</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.7068303291697</v>
+        <v>294.3857527084329</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.0660381013456</v>
+        <v>266.2899896430258</v>
       </c>
       <c r="AD3" t="n">
-        <v>181039.9381749005</v>
+        <v>215155.8695377266</v>
       </c>
       <c r="AE3" t="n">
-        <v>247706.8303291698</v>
+        <v>294385.7527084329</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926194611817383e-06</v>
+        <v>5.701498164610005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.867838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224066.0381013456</v>
+        <v>266289.9896430258</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.8832611167737</v>
+        <v>187.4702991474443</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.4958196453084</v>
+        <v>256.5051338993042</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.3565694897591</v>
+        <v>232.0246439272458</v>
       </c>
       <c r="AD4" t="n">
-        <v>161883.2611167737</v>
+        <v>187470.2991474443</v>
       </c>
       <c r="AE4" t="n">
-        <v>221495.8196453084</v>
+        <v>256505.1338993042</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.369924635621175e-06</v>
+        <v>6.345869156482107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>200356.5694897591</v>
+        <v>232024.6439272458</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.5190947556512</v>
+        <v>177.5496852639057</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.3691570601923</v>
+        <v>242.9313123172579</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.627960316266</v>
+        <v>219.7462888260074</v>
       </c>
       <c r="AD5" t="n">
-        <v>143519.0947556512</v>
+        <v>177549.6852639057</v>
       </c>
       <c r="AE5" t="n">
-        <v>196369.1570601923</v>
+        <v>242931.3123172579</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.637908721853405e-06</v>
+        <v>6.735027343190153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>177627.960316266</v>
+        <v>219746.2888260074</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.2046945427444</v>
+        <v>165.8769839194356</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.8342484678779</v>
+        <v>226.9602073745229</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.5258570352165</v>
+        <v>205.2994437234154</v>
       </c>
       <c r="AD6" t="n">
-        <v>140204.6945427444</v>
+        <v>165876.9839194356</v>
       </c>
       <c r="AE6" t="n">
-        <v>191834.2484678779</v>
+        <v>226960.2073745229</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.737928278117133e-06</v>
+        <v>6.880272643753282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.520182291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>173525.8570352165</v>
+        <v>205299.4437234154</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.549937628579</v>
+        <v>162.051634804678</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.8336488214237</v>
+        <v>221.7261959532217</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.0025076006326</v>
+        <v>200.5649590061805</v>
       </c>
       <c r="AD7" t="n">
-        <v>136549.9376285789</v>
+        <v>162051.634804678</v>
       </c>
       <c r="AE7" t="n">
-        <v>186833.6488214236</v>
+        <v>221726.1959532218</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.83519587315539e-06</v>
+        <v>7.021521631492568e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.389973958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>169002.5076006326</v>
+        <v>200564.9590061805</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.6480780620197</v>
+        <v>159.1497752381188</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.8631965414505</v>
+        <v>217.7557436732487</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.4109897136941</v>
+        <v>196.973441119242</v>
       </c>
       <c r="AD8" t="n">
-        <v>133648.0780620197</v>
+        <v>159149.7752381188</v>
       </c>
       <c r="AE8" t="n">
-        <v>182863.1965414505</v>
+        <v>217755.7436732487</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.913199739615338e-06</v>
+        <v>7.134796429464953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.285807291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>165410.9897136941</v>
+        <v>196973.441119242</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.4898743356435</v>
+        <v>157.9915715117425</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.2784911066811</v>
+        <v>216.1710382384792</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.9775263414705</v>
+        <v>195.5399777470184</v>
       </c>
       <c r="AD9" t="n">
-        <v>132489.8743356435</v>
+        <v>157991.5715117425</v>
       </c>
       <c r="AE9" t="n">
-        <v>181278.4911066811</v>
+        <v>216171.0382384792</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.933697105984374e-06</v>
+        <v>7.16456206980806e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.259765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>163977.5263414705</v>
+        <v>195539.9777470184</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>129.567995544727</v>
+        <v>155.069692720826</v>
       </c>
       <c r="AB10" t="n">
-        <v>177.2806476407565</v>
+        <v>212.1731947725546</v>
       </c>
       <c r="AC10" t="n">
-        <v>160.3612314449239</v>
+        <v>191.9236828504718</v>
       </c>
       <c r="AD10" t="n">
-        <v>129567.9955447269</v>
+        <v>155069.692720826</v>
       </c>
       <c r="AE10" t="n">
-        <v>177280.6476407564</v>
+        <v>212173.1947725546</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.001072708401118e-06</v>
+        <v>7.262402832046983e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>160361.2314449239</v>
+        <v>191923.6828504718</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.4851811123592</v>
+        <v>152.9868782884583</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.4308490471047</v>
+        <v>209.3233961789029</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.7834136293319</v>
+        <v>189.3458650348798</v>
       </c>
       <c r="AD11" t="n">
-        <v>127485.1811123592</v>
+        <v>152986.8782884583</v>
       </c>
       <c r="AE11" t="n">
-        <v>174430.8490471047</v>
+        <v>209323.3961789029</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.044914297579337e-06</v>
+        <v>7.326068229447519e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.123046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>157783.4136293319</v>
+        <v>189345.8650348798</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.7346755884409</v>
+        <v>151.2363727645399</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.0357301624276</v>
+        <v>206.9282772942257</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.6168815294371</v>
+        <v>187.179332934985</v>
       </c>
       <c r="AD12" t="n">
-        <v>125734.6755884409</v>
+        <v>151236.3727645399</v>
       </c>
       <c r="AE12" t="n">
-        <v>172035.7301624276</v>
+        <v>206928.2772942257</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.072813490692749e-06</v>
+        <v>7.36658257324786e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.090494791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>155616.8815294371</v>
+        <v>187179.332934985</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.0894594039734</v>
+        <v>149.5911565800724</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.7846727970247</v>
+        <v>204.6772199288228</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.5806619196086</v>
+        <v>185.1431133251566</v>
       </c>
       <c r="AD13" t="n">
-        <v>124089.4594039734</v>
+        <v>149591.1565800724</v>
       </c>
       <c r="AE13" t="n">
-        <v>169784.6727970247</v>
+        <v>204677.2199288228</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.100902474235504e-06</v>
+        <v>7.407372524829157e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH13" t="n">
-        <v>153580.6619196087</v>
+        <v>185143.1133251566</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>122.5827798734256</v>
+        <v>148.0844770495246</v>
       </c>
       <c r="AB14" t="n">
-        <v>167.7231673933206</v>
+        <v>202.6157145251188</v>
       </c>
       <c r="AC14" t="n">
-        <v>151.7159036982925</v>
+        <v>183.2783551038404</v>
       </c>
       <c r="AD14" t="n">
-        <v>122582.7798734256</v>
+        <v>148084.4770495246</v>
       </c>
       <c r="AE14" t="n">
-        <v>167723.1673933206</v>
+        <v>202615.7145251188</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.124246697044686e-06</v>
+        <v>7.441272281886586e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>151715.9036982925</v>
+        <v>183278.3551038404</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>123.1400020811615</v>
+        <v>148.6416992572605</v>
       </c>
       <c r="AB15" t="n">
-        <v>168.4855834008534</v>
+        <v>203.3781305326515</v>
       </c>
       <c r="AC15" t="n">
-        <v>152.4055557921241</v>
+        <v>183.968007197672</v>
       </c>
       <c r="AD15" t="n">
-        <v>123140.0020811615</v>
+        <v>148641.6992572605</v>
       </c>
       <c r="AE15" t="n">
-        <v>168485.5834008534</v>
+        <v>203378.1305326515</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.114757175577539e-06</v>
+        <v>7.427491892838851e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.038411458333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>152405.5557921241</v>
+        <v>183968.007197672</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.77568511657267</v>
+        <v>107.1530001430451</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7843677144022</v>
+        <v>146.6114620523853</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.49757893607725</v>
+        <v>132.6190698846247</v>
       </c>
       <c r="AD2" t="n">
-        <v>78775.68511657267</v>
+        <v>107153.0001430451</v>
       </c>
       <c r="AE2" t="n">
-        <v>107784.3677144022</v>
+        <v>146611.4620523853</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.788122628576445e-06</v>
+        <v>9.64845557103691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.858723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97497.57893607725</v>
+        <v>132619.0698846247</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.1373883464085</v>
+        <v>192.822300903651</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.475283615311</v>
+        <v>263.8279788157959</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.433431986133</v>
+        <v>238.6486068025872</v>
       </c>
       <c r="AD2" t="n">
-        <v>161137.3883464085</v>
+        <v>192822.300903651</v>
       </c>
       <c r="AE2" t="n">
-        <v>220475.283615311</v>
+        <v>263827.9788157959</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.186221614327349e-06</v>
+        <v>6.371038394839894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.128255208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>199433.431986133</v>
+        <v>238648.6068025873</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6886409372802</v>
+        <v>148.3734639859717</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.6585464698327</v>
+        <v>203.0111192007692</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.4209588769732</v>
+        <v>183.6360229122009</v>
       </c>
       <c r="AD3" t="n">
-        <v>116688.6409372802</v>
+        <v>148373.4639859716</v>
       </c>
       <c r="AE3" t="n">
-        <v>159658.5464698327</v>
+        <v>203011.1192007692</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.11418221134676e-06</v>
+        <v>7.783307772140691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>144420.9588769732</v>
+        <v>183636.0229122009</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.5900975180831</v>
+        <v>133.3324690995098</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.9460061980585</v>
+        <v>182.4313664352599</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.6353698170981</v>
+        <v>165.0203728667608</v>
       </c>
       <c r="AD4" t="n">
-        <v>109590.0975180831</v>
+        <v>133332.4690995098</v>
       </c>
       <c r="AE4" t="n">
-        <v>149946.0061980585</v>
+        <v>182431.3664352599</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.388107735030496e-06</v>
+        <v>8.200196840493589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.315104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>135635.3698170981</v>
+        <v>165020.3728667608</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.0927375974803</v>
+        <v>127.8351091789071</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.4242758282906</v>
+        <v>174.909636065492</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.8315028370036</v>
+        <v>158.2165058866662</v>
       </c>
       <c r="AD5" t="n">
-        <v>104092.7375974803</v>
+        <v>127835.1091789071</v>
       </c>
       <c r="AE5" t="n">
-        <v>142424.2758282906</v>
+        <v>174909.6360654919</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.586889248211137e-06</v>
+        <v>8.502723741679096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.090494791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>128831.5028370036</v>
+        <v>158216.5058866662</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.1850542290977</v>
+        <v>125.9274258105245</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.8140992826204</v>
+        <v>172.2994595198218</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.4704378774455</v>
+        <v>155.8554409271082</v>
       </c>
       <c r="AD6" t="n">
-        <v>102185.0542290977</v>
+        <v>125927.4258105245</v>
       </c>
       <c r="AE6" t="n">
-        <v>139814.0992826204</v>
+        <v>172299.4595198218</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.657748273414331e-06</v>
+        <v>8.610564561344592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.012369791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>126470.4378774456</v>
+        <v>155855.4409271082</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.5764474471146</v>
+        <v>126.3188190285413</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.3496207505609</v>
+        <v>172.8349809877623</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.9548499280951</v>
+        <v>156.3398529777577</v>
       </c>
       <c r="AD7" t="n">
-        <v>102576.4474471146</v>
+        <v>126318.8190285413</v>
       </c>
       <c r="AE7" t="n">
-        <v>140349.6207505609</v>
+        <v>172834.9809877623</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.651164027709609e-06</v>
+        <v>8.600543954207532e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.018880208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>126954.8499280951</v>
+        <v>156339.8529777577</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.8101239568663</v>
+        <v>238.4750980775417</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.5984912995103</v>
+        <v>326.292149968348</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.7231265159326</v>
+        <v>295.1512851293745</v>
       </c>
       <c r="AD2" t="n">
-        <v>205810.1239568663</v>
+        <v>238475.0980775417</v>
       </c>
       <c r="AE2" t="n">
-        <v>281598.4912995103</v>
+        <v>326292.149968348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.592525014146337e-06</v>
+        <v>5.363319012158276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.117838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>254723.1265159326</v>
+        <v>295151.2851293745</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.7375535759586</v>
+        <v>167.2363065436028</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.299817938974</v>
+        <v>228.8200925579893</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.6606774199496</v>
+        <v>206.9818240753377</v>
       </c>
       <c r="AD3" t="n">
-        <v>142737.5535759586</v>
+        <v>167236.3065436028</v>
       </c>
       <c r="AE3" t="n">
-        <v>195299.817938974</v>
+        <v>228820.0925579894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660733443414956e-06</v>
+        <v>6.958058799657149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.027994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>176660.6774199496</v>
+        <v>206981.8240753377</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.5110023646487</v>
+        <v>148.0950066783136</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.9932023560977</v>
+        <v>202.6301216277623</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.8647283067278</v>
+        <v>183.2913872128281</v>
       </c>
       <c r="AD4" t="n">
-        <v>123511.0023646487</v>
+        <v>148095.0066783136</v>
       </c>
       <c r="AE4" t="n">
-        <v>168993.2023560977</v>
+        <v>202630.1216277623</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039375900021759e-06</v>
+        <v>7.523338172335962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>152864.7283067278</v>
+        <v>183291.3872128281</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.7788282463562</v>
+        <v>143.1922403594288</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.5184329586651</v>
+        <v>195.9219404554828</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.0079018131881</v>
+        <v>177.2234254366374</v>
       </c>
       <c r="AD5" t="n">
-        <v>118778.8282463562</v>
+        <v>143192.2403594288</v>
       </c>
       <c r="AE5" t="n">
-        <v>162518.4329586651</v>
+        <v>195921.9404554828</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.194636413055055e-06</v>
+        <v>7.755128252602611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.305338541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>147007.9018131881</v>
+        <v>177223.4254366374</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.5119444468398</v>
+        <v>138.9253565599124</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.6802943025419</v>
+        <v>190.0838017993596</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.7269469165244</v>
+        <v>171.9424705399737</v>
       </c>
       <c r="AD6" t="n">
-        <v>114511.9444468398</v>
+        <v>138925.3565599124</v>
       </c>
       <c r="AE6" t="n">
-        <v>156680.2943025419</v>
+        <v>190083.8017993596</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.331583631615209e-06</v>
+        <v>7.959578219707543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.142578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>141726.9469165244</v>
+        <v>171942.4705399737</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.9193548815785</v>
+        <v>136.3327669946511</v>
       </c>
       <c r="AB7" t="n">
-        <v>153.1329988823738</v>
+        <v>186.5365063791916</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.5182003925957</v>
+        <v>168.733724016045</v>
       </c>
       <c r="AD7" t="n">
-        <v>111919.3548815785</v>
+        <v>136332.7669946511</v>
       </c>
       <c r="AE7" t="n">
-        <v>153132.9988823738</v>
+        <v>186536.5063791916</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.384309820098324e-06</v>
+        <v>8.038293710348972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.083984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>138518.2003925957</v>
+        <v>168733.724016045</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.7091478719931</v>
+        <v>134.1225599850658</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.1088961444091</v>
+        <v>183.5124036412269</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.7827137755865</v>
+        <v>165.9982373990358</v>
       </c>
       <c r="AD8" t="n">
-        <v>109709.1478719931</v>
+        <v>134122.5599850658</v>
       </c>
       <c r="AE8" t="n">
-        <v>150108.8961444091</v>
+        <v>183512.4036412269</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.448104483263009e-06</v>
+        <v>8.133533445209021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.012369791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>135782.7137755865</v>
+        <v>165998.2373990358</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.7107492929905</v>
+        <v>134.1241614060632</v>
       </c>
       <c r="AB9" t="n">
-        <v>150.1110872792675</v>
+        <v>183.5145947760852</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.7846957916093</v>
+        <v>166.0002194150586</v>
       </c>
       <c r="AD9" t="n">
-        <v>109710.7492929905</v>
+        <v>134124.1614060632</v>
       </c>
       <c r="AE9" t="n">
-        <v>150111.0872792675</v>
+        <v>183514.5947760852</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.443576470893278e-06</v>
+        <v>8.126773527119587e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>135784.6957916093</v>
+        <v>166000.2194150586</v>
       </c>
     </row>
   </sheetData>
